--- a/xlsx/_wiki_黄河猴_intext.xlsx
+++ b/xlsx/_wiki_黄河猴_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>黄河猴</t>
   </si>
@@ -210,12 +210,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hoanghonius</t>
@@ -582,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1412,29 +1406,6 @@
         <v>70</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_黄河猴_intext.xlsx
+++ b/xlsx/_wiki_黄河猴_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>黄河猴</t>
   </si>
@@ -210,12 +210,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hoanghonius</t>
@@ -582,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -768,7 +762,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -791,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1412,29 +1406,6 @@
         <v>70</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_黄河猴_intext.xlsx
+++ b/xlsx/_wiki_黄河猴_intext.xlsx
@@ -23,163 +23,163 @@
     <t>https://zh.wikipedia.org/zh-cn/%E9%BB%84%E6%B2%B3%E7%8C%B4</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%AF%92%E6%AD%A6%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%89%8D%E5%AF%92%E6%AD%A6%E7%BA%AA</t>
   </si>
   <si>
     <t>前寒武纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E6%AD%A6%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AF%92%E6%AD%A6%E7%BA%AA</t>
   </si>
   <si>
     <t>寒武纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%99%B6%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%A5%E9%99%B6%E7%BA%AA</t>
   </si>
   <si>
     <t>奥陶纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E7%95%99%E7%B4%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BF%97%E7%95%99%E7%B4%80</t>
   </si>
   <si>
     <t>志留紀</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A5%E7%9B%86%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%A5%E7%9B%86%E7%BA%AA</t>
   </si>
   <si>
     <t>泥盆纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E7%82%AD%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9F%B3%E7%82%AD%E7%BA%AA</t>
   </si>
   <si>
     <t>石炭纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8F%A0%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%8C%E5%8F%A0%E7%BA%AA</t>
   </si>
   <si>
     <t>二叠纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8F%A0%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%89%E5%8F%A0%E7%BA%AA</t>
   </si>
   <si>
     <t>三叠纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%8F%E7%BD%97%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BE%8F%E7%BD%97%E7%BA%AA</t>
   </si>
   <si>
     <t>侏罗纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%9E%A9%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%99%BD%E5%9E%A9%E7%BA%AA</t>
   </si>
   <si>
     <t>白垩纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%BF%91%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%A4%E8%BF%91%E7%BA%AA</t>
   </si>
   <si>
     <t>古近纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%BF%91%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E8%BF%91%E7%BA%AA</t>
   </si>
   <si>
     <t>新近纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%88%86%E9%A1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A7%91%E5%AD%B8%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
     <t>科学分类</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E7%95%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8A%A8%E7%89%A9%E7%95%8C</t>
   </si>
   <si>
     <t>动物界</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%BA%E4%B9%B3%E7%BA%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%BA%E4%B9%B3%E7%BA%B2</t>
   </si>
   <si>
     <t>哺乳纲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%B5%E9%95%BF%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%81%B5%E9%95%BF%E7%9B%AE</t>
   </si>
   <si>
     <t>灵长目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E7%8C%B4%E4%BA%9A%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8E%9F%E7%8C%B4%E4%BA%9A%E7%9B%AE</t>
   </si>
   <si>
     <t>原猴亚目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%93%A6%E5%85%94%E7%8C%B4%E7%A7%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A5%BF%E7%93%A6%E5%85%94%E7%8C%B4%E7%A7%91</t>
   </si>
   <si>
     <t>西瓦兔猴科</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8%E6%A8%A1%E5%BC%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%94%9F%E7%89%A9%E5%AD%B8%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
     <t>生物学模式</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E5%90%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%A6%E5%90%8D</t>
   </si>
   <si>
     <t>学名</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%95%B7%E9%A1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9D%88%E9%95%B7%E9%A1%9E</t>
   </si>
   <si>
     <t>灵长类</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%8B%E6%96%B0%E4%B8%96</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A7%8B%E6%96%B0%E4%B8%96</t>
   </si>
   <si>
     <t>始新世</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%94%E7%8C%B4%E4%B8%8B%E7%9B%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%94%E7%8C%B4%E4%B8%8B%E7%9B%AE</t>
   </si>
   <si>
     <t>兔猴下目</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD</t>
   </si>
   <si>
     <t>中国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%A5%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B1%B1%E8%A5%BF</t>
   </si>
   <si>
     <t>山西</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%A3%E6%9B%B2%E5%8E%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9E%A3%E6%9B%B2%E5%8E%BF</t>
   </si>
   <si>
     <t>垣曲县</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
     <t>奥地利</t>
@@ -191,19 +191,19 @@
     <t>en-Otto Zdansky</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%8B%E9%95%9C%E7%8C%B4%E7%A7%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A7%8B%E9%95%9C%E7%8C%B4%E7%A7%91</t>
   </si>
   <si>
     <t>始镜猴科</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%94%9F%E7%89%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%A4%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
     <t>古生物</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E6%B2%B3%E7%8C%B4%E5%B1%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%84%E6%B2%B3%E7%8C%B4%E5%B1%9E</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
@@ -739,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
